--- a/data/trans_dic/P16A_n_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4004340786134817</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5016739078660328</v>
+        <v>0.5016739078660329</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3464642583246915</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2380869744712372</v>
+        <v>0.2350953733470471</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2193996379065216</v>
+        <v>0.2208859751798994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.216216011972426</v>
+        <v>0.2189835435034206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3357476959140879</v>
+        <v>0.3331934633552933</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.35835738764057</v>
+        <v>0.3614762304738908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4249083125982253</v>
+        <v>0.4224414256046021</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3730895411761015</v>
+        <v>0.3725526211309057</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.466560270285725</v>
+        <v>0.4635435927822281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3249893565482646</v>
+        <v>0.3245124160698737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3359283253565667</v>
+        <v>0.3331142859755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3058607588922626</v>
+        <v>0.3090247249292485</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.419052143036395</v>
+        <v>0.4193752921323222</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3097535341297549</v>
+        <v>0.3087877113974737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2739795856433772</v>
+        <v>0.2769824029871208</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.268413834564769</v>
+        <v>0.2720368697778373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4256128676203362</v>
+        <v>0.4262776753531416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4257228311099235</v>
+        <v>0.4260466870193312</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4850446375298657</v>
+        <v>0.4848637692787473</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.427809487029937</v>
+        <v>0.4316524148840689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5378090116415886</v>
+        <v>0.5372586988833721</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3737568239956797</v>
+        <v>0.3718627574744625</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3760599811020524</v>
+        <v>0.3746280317548816</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3466279903841764</v>
+        <v>0.3485409075367686</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4775499653161241</v>
+        <v>0.4781306594612377</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2754733438237275</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3623847123094353</v>
+        <v>0.3623847123094352</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1517587464021355</v>
+        <v>0.15054812478508</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2225403911946845</v>
+        <v>0.2270496745677742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1978863964324232</v>
+        <v>0.1991692930967454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.263986061436345</v>
+        <v>0.2629740754054218</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2558912708635558</v>
+        <v>0.2573744519115616</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3832359879222802</v>
+        <v>0.3848261144969963</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.289493835853364</v>
+        <v>0.2914355464067031</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3951730039995752</v>
+        <v>0.3944350915586</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2086545639538457</v>
+        <v>0.2106538449946483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3167402238292454</v>
+        <v>0.3185881862907001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2540526813631431</v>
+        <v>0.2547487265929287</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3436979969546946</v>
+        <v>0.3403629214593499</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.196291405106658</v>
+        <v>0.1968705622429445</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2845928921221429</v>
+        <v>0.283652240695255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2512377528769589</v>
+        <v>0.2567472023332783</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3256607620578971</v>
+        <v>0.324566238145675</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3133850303683693</v>
+        <v>0.3132877426886745</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4476107978716619</v>
+        <v>0.4454291052908723</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3512087421088027</v>
+        <v>0.349558443859999</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.446607281069668</v>
+        <v>0.4471197224178826</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2452573375089452</v>
+        <v>0.2465187242284524</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.360636834250718</v>
+        <v>0.3591933230614385</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2961304236357045</v>
+        <v>0.2951060831628898</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3819635483151891</v>
+        <v>0.3813165817979431</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1119458308569734</v>
+        <v>0.1112160329313128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2553741028435157</v>
+        <v>0.2584938268123911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1986740034122563</v>
+        <v>0.1987602794013896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2393941994744388</v>
+        <v>0.237039322324037</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2124867028463136</v>
+        <v>0.2106283880310962</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3290413780781622</v>
+        <v>0.3249604479545793</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3015935419743483</v>
+        <v>0.3009926082374134</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3372854475568065</v>
+        <v>0.3363656235476746</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1656552330338878</v>
+        <v>0.1633577902509535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2997533104360434</v>
+        <v>0.3022596649347918</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2569734650745529</v>
+        <v>0.2558533691598796</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2951267637365516</v>
+        <v>0.2942966910715614</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.149508440182382</v>
+        <v>0.1512445223917085</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3156287549133075</v>
+        <v>0.3236525260514007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2555656023551006</v>
+        <v>0.2593444796295554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2924344112907757</v>
+        <v>0.2994203828293981</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2655876850992767</v>
+        <v>0.2655378350293963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3932740823658569</v>
+        <v>0.3911540529058457</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3715669679629688</v>
+        <v>0.3694224155046428</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3879278757070796</v>
+        <v>0.3881763661402408</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1968369267528871</v>
+        <v>0.1974681444811633</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3473727171217155</v>
+        <v>0.3475665092956804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3025500452603364</v>
+        <v>0.3026053353389339</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3335285747780657</v>
+        <v>0.3327009166460299</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.207268880956287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2904102303562006</v>
+        <v>0.2904102303562007</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2325270083426844</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1208184648110087</v>
+        <v>0.1203055629921489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1598230470693159</v>
+        <v>0.1576382116218946</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1700118681278368</v>
+        <v>0.1741013433324931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2582248160571538</v>
+        <v>0.2624493447861775</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1894279158511456</v>
+        <v>0.187854026140584</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2610259831323635</v>
+        <v>0.2603707078017767</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2479973892105814</v>
+        <v>0.2488135494030409</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3345761960901019</v>
+        <v>0.3354265842438716</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1578306932950541</v>
+        <v>0.1611886827204571</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2189772675728838</v>
+        <v>0.2183609525849479</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2185039864165627</v>
+        <v>0.2210807579489162</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3051164917926618</v>
+        <v>0.3051981972954268</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1894517641028053</v>
+        <v>0.1892492668981835</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2411074526803267</v>
+        <v>0.2368343679304247</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2449859799939917</v>
+        <v>0.2481121252776492</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3213736429632281</v>
+        <v>0.3226309679682161</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2804324368443137</v>
+        <v>0.2852463484938826</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3489223563654411</v>
+        <v>0.3512403505021621</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3334662488855679</v>
+        <v>0.3348996235376171</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3894361992008533</v>
+        <v>0.3902021083158703</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.217295326562315</v>
+        <v>0.2167830340029028</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2784868414816805</v>
+        <v>0.2795025592956217</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2781728517968877</v>
+        <v>0.27561879303126</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3481272340504125</v>
+        <v>0.3461888965474046</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.159882374482678</v>
+        <v>0.1603183115297287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2369317473522263</v>
+        <v>0.2373743360614591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2156663650277991</v>
+        <v>0.2157426072242859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2816703157846667</v>
+        <v>0.280377835689631</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2806156134640137</v>
+        <v>0.2791593565222424</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3835521005901966</v>
+        <v>0.382856684202308</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3307435630461287</v>
+        <v>0.3328544918837984</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3897925976635895</v>
+        <v>0.3902560312555684</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2243681095039892</v>
+        <v>0.2246157346260398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3158036010771283</v>
+        <v>0.316366840378455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.278987877034144</v>
+        <v>0.2790170267091325</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3404946287847074</v>
+        <v>0.3413129289253988</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1867190836463886</v>
+        <v>0.1861224757313356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.269387366155214</v>
+        <v>0.2685162700492763</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.243720713778579</v>
+        <v>0.2453585777153943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3133038223106316</v>
+        <v>0.3107521629042917</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3111506975299898</v>
+        <v>0.3111917041901899</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4170380623067811</v>
+        <v>0.4160257996115278</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3639245012464138</v>
+        <v>0.3648070969717058</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4186187781554851</v>
+        <v>0.4172136716890034</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2453453769075376</v>
+        <v>0.2465143958852622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3385990433892673</v>
+        <v>0.3387388869189622</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3013678584165559</v>
+        <v>0.300914723286998</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3619551030733789</v>
+        <v>0.3631487955166353</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139076</v>
+        <v>137329</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>229039</v>
+        <v>230591</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>243891</v>
+        <v>247013</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>167450</v>
+        <v>166177</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>330525</v>
+        <v>333401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>475867</v>
+        <v>473104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>469929</v>
+        <v>469253</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>290938</v>
+        <v>289057</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>489588</v>
+        <v>488870</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>726903</v>
+        <v>720814</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>730260</v>
+        <v>737814</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>470311</v>
+        <v>470673</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>180940</v>
+        <v>180376</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>286017</v>
+        <v>289152</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>302770</v>
+        <v>306857</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>212270</v>
+        <v>212601</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>392658</v>
+        <v>392957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>543215</v>
+        <v>543013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>538852</v>
+        <v>543693</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>335367</v>
+        <v>335024</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>563055</v>
+        <v>560202</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>813742</v>
+        <v>810644</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>827594</v>
+        <v>832162</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>535964</v>
+        <v>536616</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>163580</v>
+        <v>162275</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>217438</v>
+        <v>221844</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>179844</v>
+        <v>181010</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>253463</v>
+        <v>252491</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>270615</v>
+        <v>272183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>419361</v>
+        <v>421101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>291368</v>
+        <v>293323</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>440953</v>
+        <v>440130</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>445568</v>
+        <v>449837</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>656075</v>
+        <v>659903</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>486587</v>
+        <v>487920</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>713512</v>
+        <v>706589</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>211581</v>
+        <v>212206</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>278068</v>
+        <v>277149</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>228331</v>
+        <v>233338</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>312679</v>
+        <v>311628</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>331417</v>
+        <v>331314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>489803</v>
+        <v>487416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>353483</v>
+        <v>351822</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>498346</v>
+        <v>498918</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>523730</v>
+        <v>526424</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>747000</v>
+        <v>744010</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>567179</v>
+        <v>565217</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>792951</v>
+        <v>791608</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>125558</v>
+        <v>124739</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>226035</v>
+        <v>228797</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>163659</v>
+        <v>163731</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>250521</v>
+        <v>248057</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>211199</v>
+        <v>209352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>288173</v>
+        <v>284599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>232546</v>
+        <v>232083</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>353354</v>
+        <v>352391</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>350449</v>
+        <v>345589</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>527839</v>
+        <v>532252</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>409826</v>
+        <v>408040</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>618031</v>
+        <v>616293</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>167688</v>
+        <v>169635</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>279368</v>
+        <v>286470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>210524</v>
+        <v>213637</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>306026</v>
+        <v>313337</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>263978</v>
+        <v>263929</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>344428</v>
+        <v>342571</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>286500</v>
+        <v>284846</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>406410</v>
+        <v>406670</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>416415</v>
+        <v>417751</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>611692</v>
+        <v>612034</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>482512</v>
+        <v>482600</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>698449</v>
+        <v>696716</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54030</v>
+        <v>53801</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>80395</v>
+        <v>79296</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86145</v>
+        <v>88217</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>252009</v>
+        <v>256132</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>64625</v>
+        <v>64088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>118176</v>
+        <v>117879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>121444</v>
+        <v>121843</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>304580</v>
+        <v>305354</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>124427</v>
+        <v>127074</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>209289</v>
+        <v>208700</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>217717</v>
+        <v>220284</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>575533</v>
+        <v>575687</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84723</v>
+        <v>84632</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121283</v>
+        <v>119133</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>124135</v>
+        <v>125719</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>313638</v>
+        <v>314865</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>95672</v>
+        <v>97314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>157970</v>
+        <v>159019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>163298</v>
+        <v>164000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>354521</v>
+        <v>355219</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>171307</v>
+        <v>170903</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>266166</v>
+        <v>267137</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>277171</v>
+        <v>274626</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>656663</v>
+        <v>653007</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>516553</v>
+        <v>517961</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>807735</v>
+        <v>809244</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>726209</v>
+        <v>726466</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>980574</v>
+        <v>976075</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>930232</v>
+        <v>925405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1358818</v>
+        <v>1356355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1166464</v>
+        <v>1173909</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1441225</v>
+        <v>1442939</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1468668</v>
+        <v>1470289</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2195425</v>
+        <v>2199340</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1923363</v>
+        <v>1923564</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2444309</v>
+        <v>2450183</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>603257</v>
+        <v>601330</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>918381</v>
+        <v>915411</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>820676</v>
+        <v>826192</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1090700</v>
+        <v>1081817</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1031455</v>
+        <v>1031591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1477450</v>
+        <v>1473864</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1283486</v>
+        <v>1286599</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1547808</v>
+        <v>1542613</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1605981</v>
+        <v>1613633</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2353896</v>
+        <v>2354868</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2077653</v>
+        <v>2074529</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2598367</v>
+        <v>2606937</v>
       </c>
     </row>
     <row r="24">
